--- a/outputs-HGR-r202/g__Caecibacter.xlsx
+++ b/outputs-HGR-r202/g__Caecibacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,102 +540,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT23746.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.001941533628777323</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3035733920293127</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6934301597038528</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00105491463805719</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6934301597038528</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT30091.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.001450553094390345</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2663976472150701</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.7310939864109087</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.001057813279630826</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7310939864109087</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT54583.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.001078728430152569</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1256198384265659</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.8723609127453453</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0009405203979361321</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8723609127453453</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>s__Caecibacter sp003467125</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/g__Caecibacter.xlsx
+++ b/outputs-HGR-r202/g__Caecibacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>s__Caecibacter hominis</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__Caecibacter hominis</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>s__Caecibacter hominis</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__Caecibacter hominis</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>s__Caecibacter sp003467125</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__Caecibacter sp003467125</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>s__Caecibacter sp003467125</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__Caecibacter sp003467125</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -601,6 +626,11 @@
         <v>0.8723609127453453</v>
       </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>s__Caecibacter sp003467125</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>s__Caecibacter sp003467125</t>
         </is>

--- a/outputs-HGR-r202/g__Caecibacter.xlsx
+++ b/outputs-HGR-r202/g__Caecibacter.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,6 +604,38 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT54583.fa</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.001078728430152569</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1256198384265659</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8723609127453453</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0009405203979361321</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8723609127453453</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>s__Caecibacter sp003467125</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__Caecibacter sp003467125</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
